--- a/Result/check3/2025-04-09.xlsx
+++ b/Result/check3/2025-04-09.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2224</t>
+          <t>7287</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>1449</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>35.16</t>
+          <t>34.19</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>42.45</t>
+          <t>44.38</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-11.05</t>
+          <t>-11.45</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-22.10</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>12.93</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>46.51</t>
+          <t>45.67</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/check3/2025-04-09.xlsx
+++ b/Result/check3/2025-04-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>24.74</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>57</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7287</t>
+          <t>7536</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>34.01</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1449</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>24.74</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>7745</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>34.19</t>
+          <t>33.71</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,17 +1357,17 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>44.38</t>
+          <t>44.48</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1398,248 +1398,6 @@
       <c r="AV4" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1348.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>34.35</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>62.3</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-11.45</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>782</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>151.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>76.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>83956.0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>12.88</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>13.83%</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>45.67</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>2311</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>34.98</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-04-09.xlsx
+++ b/Result/check3/2025-04-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>5489</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-9.3</t>
+          <t>-0.5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8307.0</t>
+          <t>175.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,142 +703,142 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-22.11</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>39.65</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>28.42</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>42.75</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>24.74</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>7536</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>36.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-246705.0</t>
+          <t>-23251.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>彩富</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -848,57 +848,57 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>34.01</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>38.43%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>彩富-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>-9.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13143.0</t>
+          <t>8307.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>-22.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>25.7</t>
+          <t>42.75</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,57 +975,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>24.74</t>
+          <t>31.49</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>7612</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>273.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,27 +1055,27 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>376324.0</t>
+          <t>-246705.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1090,47 +1090,47 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>1749</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -1167,235 +1167,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>3297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13143.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2236</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>376324.0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>33.49%</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>-25.64%</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>67.41</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>杭特-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>1806</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>-5.94</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>11256.055</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-5.00</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>44.52</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>1.02</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>10.25</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>3573</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>5797</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>0.71</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-4.30</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>0.19</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>175.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>86.0</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>2025-04-02</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>86</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>-263980338.0</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>冠軍</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>玻璃陶瓷</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>2.22</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>33.71</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>35.65</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>24.19%</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>9.98%</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>44.48</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>4080</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷平</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右上</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
         <is>
           <t>14.4</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
         </is>

--- a/Result/check3/2025-04-09.xlsx
+++ b/Result/check3/2025-04-09.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>30.43</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>20.38</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>20.84</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>28.21</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>31.49</t>
+          <t>37.68</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7612</t>
+          <t>726</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>41.08</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1749</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>24.41</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2236</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>-6.21</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>35.65</t>
+          <t>36.13</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>46.69</t>
+          <t>46.82</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/check3/2025-04-09.xlsx
+++ b/Result/check3/2025-04-09.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2107</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>-13.27</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.84</t>
+          <t>18.77</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>37.68</t>
+          <t>30.83</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>236</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>17248</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-21.20</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>41.08</t>
+          <t>37.01</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1732</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>36.13</t>
+          <t>36.29</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>46.82</t>
+          <t>47.12</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/check3/2025-04-09.xlsx
+++ b/Result/check3/2025-04-09.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>715</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-13.27</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.77</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4606</t>
+          <t>5063</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>30.83</t>
+          <t>35.81</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>17248</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-21.20</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>37.01</t>
+          <t>39.88</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>18.93</t>
+          <t>26.26</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>36.29</t>
+          <t>36.61</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>47.12</t>
+          <t>46.77</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/check3/2025-04-09.xlsx
+++ b/Result/check3/2025-04-09.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>19.57</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>10964</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>22.55</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.45</t>
+          <t>27.32</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5063</t>
+          <t>5536</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>35.81</t>
+          <t>27.54</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>1159</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>39.88</t>
+          <t>35.33</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>26.26</t>
+          <t>13.18</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>596</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>-6.08</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>10355</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-5.72</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>35.48</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>46.77</t>
+          <t>45.66</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/check3/2025-04-09.xlsx
+++ b/Result/check3/2025-04-09.xlsx
@@ -733,7 +733,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>29.57</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>10964</t>
+          <t>9693</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>22.55</t>
+          <t>23.56</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>27.32</t>
+          <t>28.75</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5536</t>
+          <t>5782</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>27.54</t>
+          <t>28.39</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1159</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>35.33</t>
+          <t>35.75</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1673</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>13.18</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>568</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-6.08</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>35.48</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>45.66</t>
+          <t>46.76</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/check3/2025-04-09.xlsx
+++ b/Result/check3/2025-04-09.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>29.57</t>
+          <t>28.43</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>9693</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>23.56</t>
+          <t>23.18</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.75</t>
+          <t>30.3</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5782</t>
+          <t>5690</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>28.39</t>
+          <t>37.13</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>35.75</t>
+          <t>40.72</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>1906</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>25.51</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>2031</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>36.45</t>
+          <t>35.48</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>46.76</t>
+          <t>47.49</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4412</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
